--- a/second-idea.xlsx
+++ b/second-idea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10952\Desktop\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48C857-7C33-4747-AC2C-FABC82293053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9560208-C09C-4008-82DA-3F00A53287AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="760" windowWidth="20790" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1540" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesperson" sheetId="1" r:id="rId1"/>

--- a/second-idea.xlsx
+++ b/second-idea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10952\Desktop\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9560208-C09C-4008-82DA-3F00A53287AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92F9F5-3D1B-4BC2-A33F-D29BE50CB74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1540" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesperson" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>产品营销：产品定位（高端或廉价与其他产品产生差异化）+输出产品价值（知识产权、供应链、开源软件）+打造IP（个人IP、动漫IP、文化输出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,10 +355,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="121.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
